--- a/produits_openfoodfacts.xlsx
+++ b/produits_openfoodfacts.xlsx
@@ -14,27 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>barcode</t>
   </si>
   <si>
+    <t>categorie</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>marque</t>
+  </si>
+  <si>
     <t>nom</t>
   </si>
   <si>
-    <t>marque</t>
-  </si>
-  <si>
-    <t>categorie</t>
-  </si>
-  <si>
     <t>nutriscore</t>
-  </si>
-  <si>
-    <t>labels</t>
   </si>
   <si>
     <t>3017620425035</t>
@@ -416,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,52 +438,37 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
